--- a/Usinage/MX - 210V/threading_Chart.xlsx
+++ b/Usinage/MX - 210V/threading_Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonepar-my.sharepoint.com/personal/eric_vandenbussche_sonepar_fr/Documents/Documents/Dropbox/copeaux/Usinage/MX - 210V/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonepar-my.sharepoint.com/personal/eric_vandenbussche_sonepar_fr/Documents/Documents/GitHub/copeaux/Usinage/MX - 210V/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="8_{1FB29F59-1083-4D3D-A17C-A81A9E3061B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01FB2096-7FA5-4510-9C8B-5E97A5442E17}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="8_{1FB29F59-1083-4D3D-A17C-A81A9E3061B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6142AB18-2414-42BC-946E-27081208B49D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9A5BD72-815E-45C3-801A-F3FD95C04170}"/>
   </bookViews>
@@ -291,13 +291,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -323,13 +323,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>28469</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>33286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>146957</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>132202</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -345,8 +345,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4227245" y="237393"/>
-          <a:ext cx="818283" cy="2344095"/>
+          <a:off x="4565798" y="32143"/>
+          <a:ext cx="883536" cy="2225277"/>
           <a:chOff x="7675684" y="65943"/>
           <a:chExt cx="826059" cy="2314159"/>
         </a:xfrm>
@@ -1198,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F342D56-B47F-466A-AE73-68BC7AAE0D91}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,554 +1210,553 @@
     <col min="2" max="21" width="5.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="14"/>
+    </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="12" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="14">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6">
+        <v>80</v>
+      </c>
+      <c r="C3" s="9">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6">
+        <v>80</v>
+      </c>
+      <c r="E3" s="9">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6">
+        <v>80</v>
+      </c>
+      <c r="G3" s="9">
+        <v>33</v>
+      </c>
+      <c r="H3" s="6">
+        <v>80</v>
+      </c>
+      <c r="I3" s="9">
+        <v>30</v>
+      </c>
+      <c r="J3" s="6">
+        <v>80</v>
+      </c>
+      <c r="K3" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10">
+        <v>84</v>
+      </c>
+      <c r="F4" s="7">
+        <v>30</v>
+      </c>
+      <c r="G4" s="10">
+        <v>84</v>
+      </c>
+      <c r="H4" s="7">
+        <v>40</v>
+      </c>
+      <c r="I4" s="10">
+        <v>100</v>
+      </c>
+      <c r="J4" s="7">
+        <v>100</v>
+      </c>
+      <c r="K4" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>110</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8">
+        <v>100</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="8">
+        <v>110</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="8">
+        <v>84</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6">
+        <v>100</v>
+      </c>
+      <c r="C9" s="9">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6">
+        <v>60</v>
+      </c>
+      <c r="E9" s="9">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6">
+        <v>60</v>
+      </c>
+      <c r="I9" s="9">
+        <v>30</v>
+      </c>
+      <c r="J9" s="6">
+        <v>50</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10">
+        <v>80</v>
+      </c>
+      <c r="D10" s="7">
+        <v>50</v>
+      </c>
+      <c r="E10" s="10">
+        <v>100</v>
+      </c>
+      <c r="F10" s="7">
+        <v>84</v>
+      </c>
+      <c r="G10" s="10">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7">
+        <v>52</v>
+      </c>
+      <c r="I10" s="10">
+        <v>90</v>
+      </c>
+      <c r="J10" s="7">
+        <v>80</v>
+      </c>
+      <c r="K10" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8">
+        <v>84</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8">
+        <v>80</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="11">
+        <v>100</v>
+      </c>
+      <c r="H11" s="8">
+        <v>72</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12">
         <v>1</v>
       </c>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="12">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="I14" s="13"/>
+      <c r="J14" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B15" s="6">
         <v>80</v>
       </c>
-      <c r="C4" s="9">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C15" s="9">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6">
+        <v>40</v>
+      </c>
+      <c r="E15" s="9">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6">
+        <v>50</v>
+      </c>
+      <c r="G15" s="9">
+        <v>30</v>
+      </c>
+      <c r="H15" s="6">
+        <v>40</v>
+      </c>
+      <c r="I15" s="9">
+        <v>30</v>
+      </c>
+      <c r="J15" s="6">
+        <v>84</v>
+      </c>
+      <c r="K15" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10">
+        <v>72</v>
+      </c>
+      <c r="D16" s="7">
+        <v>60</v>
+      </c>
+      <c r="E16" s="10">
         <v>80</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F16" s="7"/>
+      <c r="G16" s="10">
+        <v>72</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="10">
+        <v>72</v>
+      </c>
+      <c r="J16" s="7">
         <v>30</v>
       </c>
-      <c r="F4" s="6">
+      <c r="K16" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="11">
+        <v>66</v>
+      </c>
+      <c r="D17" s="8">
+        <v>84</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="11">
+        <v>84</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="11">
+        <v>84</v>
+      </c>
+      <c r="J17" s="8">
+        <v>72</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12">
+        <v>2</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12">
+        <v>3</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6">
+        <v>84</v>
+      </c>
+      <c r="C21" s="9">
+        <v>90</v>
+      </c>
+      <c r="D21" s="6">
         <v>80</v>
       </c>
-      <c r="G4" s="9">
-        <v>33</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="E21" s="9">
+        <v>50</v>
+      </c>
+      <c r="F21" s="6">
+        <v>84</v>
+      </c>
+      <c r="G21" s="9">
+        <v>60</v>
+      </c>
+      <c r="H21" s="6">
+        <v>84</v>
+      </c>
+      <c r="I21" s="9">
+        <v>90</v>
+      </c>
+      <c r="J21" s="6">
+        <v>84</v>
+      </c>
+      <c r="K21" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="10">
+        <v>40</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="10">
+        <v>66</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="10">
+        <v>50</v>
+      </c>
+      <c r="H22" s="7">
+        <v>50</v>
+      </c>
+      <c r="I22" s="10">
+        <v>60</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="11">
         <v>80</v>
       </c>
-      <c r="I4" s="9">
-        <v>30</v>
-      </c>
-      <c r="J4" s="6">
-        <v>80</v>
-      </c>
-      <c r="K4" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7">
-        <v>20</v>
-      </c>
-      <c r="C5" s="10">
-        <v>100</v>
-      </c>
-      <c r="D5" s="7">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10">
-        <v>84</v>
-      </c>
-      <c r="F5" s="7">
-        <v>30</v>
-      </c>
-      <c r="G5" s="10">
-        <v>84</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="D23" s="8"/>
+      <c r="E23" s="11">
         <v>40</v>
       </c>
-      <c r="I5" s="10">
-        <v>100</v>
-      </c>
-      <c r="J5" s="7">
-        <v>100</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="F23" s="8"/>
+      <c r="G23" s="11">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="8">
-        <v>110</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="8">
-        <v>100</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="8">
-        <v>110</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="8">
-        <v>84</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
-        <v>0.45</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6">
-        <v>100</v>
-      </c>
-      <c r="C10" s="9">
-        <v>60</v>
-      </c>
-      <c r="D10" s="6">
-        <v>60</v>
-      </c>
-      <c r="E10" s="9">
-        <v>30</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="H23" s="8">
         <v>40</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6">
-        <v>60</v>
-      </c>
-      <c r="I10" s="9">
-        <v>30</v>
-      </c>
-      <c r="J10" s="6">
-        <v>50</v>
-      </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7">
-        <v>50</v>
-      </c>
-      <c r="E11" s="10">
-        <v>100</v>
-      </c>
-      <c r="F11" s="7">
-        <v>84</v>
-      </c>
-      <c r="G11" s="10">
-        <v>30</v>
-      </c>
-      <c r="H11" s="7">
-        <v>52</v>
-      </c>
-      <c r="I11" s="10">
-        <v>90</v>
-      </c>
-      <c r="J11" s="7">
-        <v>80</v>
-      </c>
-      <c r="K11" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="8">
-        <v>84</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="8">
-        <v>80</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="11">
-        <v>100</v>
-      </c>
-      <c r="H12" s="8">
-        <v>72</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="F14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13">
-        <v>1</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6">
-        <v>80</v>
-      </c>
-      <c r="C16" s="9">
-        <v>33</v>
-      </c>
-      <c r="D16" s="6">
-        <v>40</v>
-      </c>
-      <c r="E16" s="9">
-        <v>30</v>
-      </c>
-      <c r="F16" s="6">
-        <v>50</v>
-      </c>
-      <c r="G16" s="9">
-        <v>30</v>
-      </c>
-      <c r="H16" s="6">
-        <v>40</v>
-      </c>
-      <c r="I16" s="9">
-        <v>30</v>
-      </c>
-      <c r="J16" s="6">
-        <v>84</v>
-      </c>
-      <c r="K16" s="9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10">
-        <v>72</v>
-      </c>
-      <c r="D17" s="7">
-        <v>60</v>
-      </c>
-      <c r="E17" s="10">
-        <v>80</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="10">
-        <v>72</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="10">
-        <v>72</v>
-      </c>
-      <c r="J17" s="7">
-        <v>30</v>
-      </c>
-      <c r="K17" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="11">
-        <v>66</v>
-      </c>
-      <c r="D18" s="8">
-        <v>84</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="11">
-        <v>84</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="11">
-        <v>84</v>
-      </c>
-      <c r="J18" s="8">
-        <v>72</v>
-      </c>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13">
-        <v>1.75</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13">
-        <v>2</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="13">
-        <v>3</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6">
-        <v>84</v>
-      </c>
-      <c r="C22" s="9">
-        <v>90</v>
-      </c>
-      <c r="D22" s="6">
-        <v>80</v>
-      </c>
-      <c r="E22" s="9">
-        <v>50</v>
-      </c>
-      <c r="F22" s="6">
-        <v>84</v>
-      </c>
-      <c r="G22" s="9">
-        <v>60</v>
-      </c>
-      <c r="H22" s="6">
-        <v>84</v>
-      </c>
-      <c r="I22" s="9">
-        <v>90</v>
-      </c>
-      <c r="J22" s="6">
-        <v>84</v>
-      </c>
-      <c r="K22" s="9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10">
-        <v>40</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="10">
-        <v>66</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="10">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
-        <v>50</v>
-      </c>
-      <c r="I23" s="10">
-        <v>60</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="11">
-        <v>80</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="11">
-        <v>40</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="11">
-        <v>40</v>
-      </c>
-      <c r="H24" s="8">
-        <v>40</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="11">
+      <c r="I23" s="11"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="11">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
